--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_野帝组.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_野帝组.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.2.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="配置文件（生产环境）" sheetId="4" r:id="rId2"/>
-    <sheet name="生产上线执行顺序" sheetId="8" r:id="rId3"/>
-    <sheet name="配置文件（公测环境）" sheetId="6" r:id="rId4"/>
-    <sheet name="配置文件（预发布环境）" sheetId="7" r:id="rId5"/>
+    <sheet name="配置文件（预发布环境）" sheetId="7" r:id="rId3"/>
+    <sheet name="生产上线执行顺序" sheetId="8" r:id="rId4"/>
+    <sheet name="配置文件（公测环境）" sheetId="6" r:id="rId5"/>
     <sheet name="数据修复" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.2.0新特性|Fix Bug'!$A$1:$U$17</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>No</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>房态房源数据库</t>
+  </si>
+  <si>
+    <t>测试环境</t>
   </si>
   <si>
     <t>5.2.0项目上线准备执行方案
@@ -353,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -424,21 +427,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -451,22 +439,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,21 +464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -521,24 +478,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,11 +507,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,22 +554,39 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -625,7 +628,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,169 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,36 +980,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1021,11 +994,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,167 +1043,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,65 +1281,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1856,7 +1859,7 @@
   <sheetPr/>
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5792,6 +5795,9 @@
   </sheetData>
   <autoFilter ref="A1:U17"/>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E1:E4 E7:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 G5 I5 T5 G6 I6 T6 G1:G4 G7:G1048576 I1:I2 I7:I1048576 T1:T4 T7:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -5801,14 +5807,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q6 Q1:Q4 Q7:Q1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E1:E4 E7:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C1:C4 C7:C1048576">
+      <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B6 B1:B4 B7:B1048576">
       <formula1>"重要,不重要"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C1:C4 C7:C1048576">
-      <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O1:O4 O7:O1048576">
       <formula1>"通过,不通过"</formula1>
@@ -5826,7 +5829,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -5859,7 +5862,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="18"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9"/>
@@ -5874,7 +5877,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
@@ -5913,7 +5916,7 @@
       <c r="L3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6016,27 +6019,27 @@
     </row>
     <row r="7" ht="16.5" spans="1:13">
       <c r="A7" s="11"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="21"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" ht="16.5" spans="1:13">
       <c r="A8" s="11"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -6169,17 +6172,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6188,6 +6191,373 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
+    <col min="2" max="3" width="6.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="32.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="4.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="57.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="6.33333333333333" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="32.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:13">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:13">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" ht="66" spans="1:13">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" ht="66" spans="1:13">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:13">
+      <c r="A7" s="11"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:13">
+      <c r="A8" s="11"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:13">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:13">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:13">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:13">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:13">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K13"/>
@@ -6209,255 +6579,255 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
-      <c r="A1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" ht="17.25" spans="1:11">
-      <c r="A2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="26">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+      <c r="F5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:11">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" ht="17.25" spans="1:11">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" ht="17.25" spans="1:11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:11">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" ht="17.25" spans="1:11">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6472,7 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M11"/>
@@ -6513,7 +6883,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="18"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9"/>
@@ -6528,7 +6898,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
@@ -6567,7 +6937,7 @@
       <c r="L3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6696,329 +7066,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F11">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F11">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I11">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="6.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="4.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="57.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33333333333333" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:13">
-      <c r="A3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:13">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:13">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:13">
-      <c r="A7" s="11"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:13">
-      <c r="A8" s="11"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:13">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:13">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:13">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:13">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:13">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:13">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7048,28 +7103,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
